--- a/Assignment2/AirportData.xlsx
+++ b/Assignment2/AirportData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2024/assignments/To Students/Assignment2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignments\AE4423\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B56D93B-E6E7-D64D-9010-18D27CF71E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CA2363-EFE5-458A-8637-718B1BAB3985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{8F9EF160-6BC0-D24A-9525-A45551C45E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F9EF160-6BC0-D24A-9525-A45551C45E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Airport" sheetId="1" r:id="rId1"/>
@@ -568,23 +568,23 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>32.697899999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -844,7 +844,7 @@
         <v>-16.7745</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
